--- a/user-data/poverty-gap-125/poverty-gap-125.xlsx
+++ b/user-data/poverty-gap-125/poverty-gap-125.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-original-value" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
   <si>
     <t>id</t>
   </si>
@@ -1369,7 +1370,10 @@
     <t>This data contains interpolated values. The interpolated values are typically contained in a column called 'value,' while the uninterpolated values are stored in 'original-value.'</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
+  </si>
+  <si>
+    <t>On the 'Data-wide-original-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'original-value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
@@ -1775,7 +1779,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14">
@@ -1785,22 +1789,32 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>455</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -52022,4 +52036,6148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O1" t="s">
+        <v>441</v>
+      </c>
+      <c r="P1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.72</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="O22" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="P22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.78</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="P28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" t="n">
+        <v>36.39</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="n">
+        <v>9.11</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="O38"/>
+      <c r="P38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="L42"/>
+      <c r="M42" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O42"/>
+      <c r="P42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.14</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="P43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="O44"/>
+      <c r="P44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="O45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="P46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47"/>
+      <c r="P47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48"/>
+      <c r="P48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54"/>
+      <c r="P54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" t="n">
+        <v>52.76</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="O56"/>
+      <c r="P56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O58"/>
+      <c r="P58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="P59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60"/>
+      <c r="P60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61"/>
+      <c r="P61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O62"/>
+      <c r="P62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="O63"/>
+      <c r="P63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M65"/>
+      <c r="N65" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="O70"/>
+      <c r="P70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="K71" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="P71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="O73"/>
+      <c r="P73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G78" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="H78"/>
+      <c r="I78" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="O79" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="P79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O81"/>
+      <c r="P81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="O82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E83" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="G83" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="H83" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="I83" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K83" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="N83" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="O83"/>
+      <c r="P83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L85"/>
+      <c r="M85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O85"/>
+      <c r="P85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="O87" t="n">
+        <v>4.837553801</v>
+      </c>
+      <c r="P87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="L88"/>
+      <c r="M88" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O88"/>
+      <c r="P88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O89"/>
+      <c r="P89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I92"/>
+      <c r="J92" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93"/>
+      <c r="M93" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94"/>
+      <c r="P94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J96"/>
+      <c r="K96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O96"/>
+      <c r="P96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H97"/>
+      <c r="I97" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O97"/>
+      <c r="P97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="O98"/>
+      <c r="P98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99"/>
+      <c r="P99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100"/>
+      <c r="P100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9.64</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O102"/>
+      <c r="P102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="O103" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="P103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F104"/>
+      <c r="G104" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H104"/>
+      <c r="I104" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O104"/>
+      <c r="P104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105"/>
+      <c r="P105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106" t="n">
+        <v>28.01</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="N106" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="O106"/>
+      <c r="P106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="O107"/>
+      <c r="P107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108"/>
+      <c r="P108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L110"/>
+      <c r="M110" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O110"/>
+      <c r="P110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J113"/>
+      <c r="K113" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O113"/>
+      <c r="P113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="N114" t="n">
+        <v>48.93</v>
+      </c>
+      <c r="O114"/>
+      <c r="P114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="N115" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="O115"/>
+      <c r="P115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116"/>
+      <c r="P116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117"/>
+      <c r="P117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="N118" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="O118"/>
+      <c r="P118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119"/>
+      <c r="P119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120"/>
+      <c r="P120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="O121"/>
+      <c r="P121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F123"/>
+      <c r="G123" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J123"/>
+      <c r="K123" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L123"/>
+      <c r="M123" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="O124"/>
+      <c r="P124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O125"/>
+      <c r="P125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127"/>
+      <c r="P127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I128"/>
+      <c r="J128" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O128"/>
+      <c r="P128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O129"/>
+      <c r="P129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="M130"/>
+      <c r="N130" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="O130"/>
+      <c r="P130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131"/>
+      <c r="P131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132" t="n">
+        <v>9.45</v>
+      </c>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="N132" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="O132"/>
+      <c r="P132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="N133" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="O133"/>
+      <c r="P133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M137"/>
+      <c r="N137" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O137"/>
+      <c r="P137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="O138"/>
+      <c r="P138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="N139" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="O139"/>
+      <c r="P139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140"/>
+      <c r="P140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143"/>
+      <c r="P143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O144"/>
+      <c r="P144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145"/>
+      <c r="P145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K146"/>
+      <c r="L146" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M146"/>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146"/>
+      <c r="P146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I147" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O148"/>
+      <c r="P148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M151"/>
+      <c r="N151" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O151" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="P151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152"/>
+      <c r="P152"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156"/>
+      <c r="D156" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156"/>
+      <c r="P156"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>315</v>
+      </c>
+      <c r="B157" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157"/>
+      <c r="D157" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K157"/>
+      <c r="L157" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M157"/>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157"/>
+      <c r="P157"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" t="s">
+        <v>318</v>
+      </c>
+      <c r="C158" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="O158"/>
+      <c r="P158"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159"/>
+      <c r="P159"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>321</v>
+      </c>
+      <c r="B160" t="s">
+        <v>322</v>
+      </c>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O160"/>
+      <c r="P160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162"/>
+      <c r="P162"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>327</v>
+      </c>
+      <c r="B163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163"/>
+      <c r="P163"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165"/>
+      <c r="D165" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="N165" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="O165"/>
+      <c r="P165"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166"/>
+      <c r="P166"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167"/>
+      <c r="D167" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="O167"/>
+      <c r="P167"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168"/>
+      <c r="P168"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O169"/>
+      <c r="P169"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" t="s">
+        <v>342</v>
+      </c>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="O170"/>
+      <c r="P170"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>343</v>
+      </c>
+      <c r="B171" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" t="s">
+        <v>346</v>
+      </c>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>347</v>
+      </c>
+      <c r="B173" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>349</v>
+      </c>
+      <c r="B174" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F174"/>
+      <c r="G174" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J174"/>
+      <c r="K174" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L174"/>
+      <c r="M174" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174"/>
+      <c r="P174"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" t="s">
+        <v>352</v>
+      </c>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175"/>
+      <c r="P175"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O176"/>
+      <c r="P176"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>355</v>
+      </c>
+      <c r="B177" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M177"/>
+      <c r="N177" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O177"/>
+      <c r="P177"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178"/>
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" t="s">
+        <v>360</v>
+      </c>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179"/>
+      <c r="P179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>361</v>
+      </c>
+      <c r="B180" t="s">
+        <v>362</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H180"/>
+      <c r="I180"/>
+      <c r="J180" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="K180"/>
+      <c r="L180"/>
+      <c r="M180" t="n">
+        <v>8</v>
+      </c>
+      <c r="N180"/>
+      <c r="O180"/>
+      <c r="P180"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" t="s">
+        <v>364</v>
+      </c>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O181"/>
+      <c r="P181"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" t="s">
+        <v>366</v>
+      </c>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="M182"/>
+      <c r="N182" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O182"/>
+      <c r="P182"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>367</v>
+      </c>
+      <c r="B183" t="s">
+        <v>368</v>
+      </c>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183"/>
+      <c r="N183" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O183"/>
+      <c r="P183"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>369</v>
+      </c>
+      <c r="B184" t="s">
+        <v>370</v>
+      </c>
+      <c r="C184"/>
+      <c r="D184" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="N184" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="O184"/>
+      <c r="P184"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>371</v>
+      </c>
+      <c r="B185" t="s">
+        <v>372</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185"/>
+      <c r="N185"/>
+      <c r="O185"/>
+      <c r="P185"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>373</v>
+      </c>
+      <c r="B186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D186"/>
+      <c r="E186" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="F186"/>
+      <c r="G186" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="H186"/>
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="O186"/>
+      <c r="P186"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H187"/>
+      <c r="I187"/>
+      <c r="J187"/>
+      <c r="K187"/>
+      <c r="L187"/>
+      <c r="M187"/>
+      <c r="N187" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O187"/>
+      <c r="P187"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>377</v>
+      </c>
+      <c r="B188" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188" t="n">
+        <v>9.97</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="H188"/>
+      <c r="I188"/>
+      <c r="J188" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="K188"/>
+      <c r="L188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M188"/>
+      <c r="N188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="O188"/>
+      <c r="P188"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189"/>
+      <c r="J189" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189"/>
+      <c r="N189" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="O189" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="P189"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>381</v>
+      </c>
+      <c r="B190" t="s">
+        <v>382</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D190"/>
+      <c r="E190" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="H190"/>
+      <c r="I190" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J190"/>
+      <c r="K190" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L190"/>
+      <c r="M190" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O190"/>
+      <c r="P190"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>383</v>
+      </c>
+      <c r="B191" t="s">
+        <v>384</v>
+      </c>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191"/>
+      <c r="I191"/>
+      <c r="J191" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="K191"/>
+      <c r="L191"/>
+      <c r="M191"/>
+      <c r="N191" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="O191"/>
+      <c r="P191"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>385</v>
+      </c>
+      <c r="B192" t="s">
+        <v>386</v>
+      </c>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192"/>
+      <c r="I192" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="J192"/>
+      <c r="K192"/>
+      <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="O192"/>
+      <c r="P192"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" t="s">
+        <v>388</v>
+      </c>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="H193"/>
+      <c r="I193"/>
+      <c r="J193"/>
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193"/>
+      <c r="P193"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" t="s">
+        <v>390</v>
+      </c>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
+      <c r="L194"/>
+      <c r="M194"/>
+      <c r="N194" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O194"/>
+      <c r="P194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>391</v>
+      </c>
+      <c r="B195" t="s">
+        <v>392</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="K195"/>
+      <c r="L195"/>
+      <c r="M195" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O195"/>
+      <c r="P195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" t="s">
+        <v>394</v>
+      </c>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K196"/>
+      <c r="L196" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196"/>
+      <c r="P196"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>395</v>
+      </c>
+      <c r="B197" t="s">
+        <v>396</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+      <c r="L197"/>
+      <c r="M197"/>
+      <c r="N197" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="O197"/>
+      <c r="P197"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198" t="s">
+        <v>398</v>
+      </c>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198"/>
+      <c r="P198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>399</v>
+      </c>
+      <c r="B199" t="s">
+        <v>400</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199"/>
+      <c r="P199"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>401</v>
+      </c>
+      <c r="B200" t="s">
+        <v>402</v>
+      </c>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201" t="s">
+        <v>404</v>
+      </c>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="J201"/>
+      <c r="K201"/>
+      <c r="L201" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="M201"/>
+      <c r="N201" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="O201"/>
+      <c r="P201" t="n">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>405</v>
+      </c>
+      <c r="B202" t="s">
+        <v>406</v>
+      </c>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K202"/>
+      <c r="L202" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M202"/>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202"/>
+      <c r="P202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>407</v>
+      </c>
+      <c r="B203" t="s">
+        <v>408</v>
+      </c>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="K203"/>
+      <c r="L203"/>
+      <c r="M203" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="N203"/>
+      <c r="O203"/>
+      <c r="P203"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>409</v>
+      </c>
+      <c r="B204" t="s">
+        <v>410</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P204"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" t="s">
+        <v>412</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="K205"/>
+      <c r="L205"/>
+      <c r="M205" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N205"/>
+      <c r="O205"/>
+      <c r="P205"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>413</v>
+      </c>
+      <c r="B206" t="s">
+        <v>414</v>
+      </c>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206"/>
+      <c r="H206"/>
+      <c r="I206"/>
+      <c r="J206"/>
+      <c r="K206"/>
+      <c r="L206"/>
+      <c r="M206"/>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206"/>
+      <c r="P206"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>415</v>
+      </c>
+      <c r="B207" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207"/>
+      <c r="H207"/>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
+      <c r="L207"/>
+      <c r="M207"/>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207"/>
+      <c r="P207"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>417</v>
+      </c>
+      <c r="B208" t="s">
+        <v>418</v>
+      </c>
+      <c r="C208"/>
+      <c r="D208" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E208" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F208" t="n">
+        <v>9.36</v>
+      </c>
+      <c r="G208" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="H208" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="I208" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="J208"/>
+      <c r="K208"/>
+      <c r="L208"/>
+      <c r="M208"/>
+      <c r="N208" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O208"/>
+      <c r="P208"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>419</v>
+      </c>
+      <c r="B209" t="s">
+        <v>420</v>
+      </c>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="F209"/>
+      <c r="G209" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="H209"/>
+      <c r="I209" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J209"/>
+      <c r="K209" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="L209"/>
+      <c r="M209" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="P209"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>421</v>
+      </c>
+      <c r="B210" t="s">
+        <v>422</v>
+      </c>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="N210"/>
+      <c r="O210"/>
+      <c r="P210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>423</v>
+      </c>
+      <c r="B211" t="s">
+        <v>424</v>
+      </c>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="N211" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O211"/>
+      <c r="P211"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" t="s">
+        <v>426</v>
+      </c>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="G212" t="n">
+        <v>32.76</v>
+      </c>
+      <c r="H212"/>
+      <c r="I212" t="n">
+        <v>37.02</v>
+      </c>
+      <c r="J212"/>
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="N212" t="n">
+        <v>40.64</v>
+      </c>
+      <c r="O212"/>
+      <c r="P212"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>427</v>
+      </c>
+      <c r="B213" t="s">
+        <v>428</v>
+      </c>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+      <c r="L213"/>
+      <c r="M213"/>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213"/>
+      <c r="P213"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/user-data/poverty-gap-125/poverty-gap-125.xlsx
+++ b/user-data/poverty-gap-125/poverty-gap-125.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
   <si>
     <t>id</t>
   </si>
@@ -1379,7 +1379,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1817,6 +1820,11 @@
         <v>456</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/poverty-gap-125/poverty-gap-125.xlsx
+++ b/user-data/poverty-gap-125/poverty-gap-125.xlsx
@@ -71,7 +71,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -179,7 +179,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -216,12 +216,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -302,6 +296,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -317,7 +317,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -995,7 +995,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1013,7 +1013,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1187,7 +1187,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1211,7 +1211,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1232,16 +1232,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1388,7 +1388,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -8120,12 +8120,8 @@
       <c r="C438" t="n">
         <v>2002</v>
       </c>
-      <c r="D438" t="n">
-        <v>9.11</v>
-      </c>
-      <c r="E438" t="n">
-        <v>9.11</v>
-      </c>
+      <c r="D438"/>
+      <c r="E438"/>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -8137,9 +8133,7 @@
       <c r="C439" t="n">
         <v>2003</v>
       </c>
-      <c r="D439" t="n">
-        <v>9.705</v>
-      </c>
+      <c r="D439"/>
       <c r="E439"/>
     </row>
     <row r="440">
@@ -8153,9 +8147,11 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E440"/>
+        <v>7.79</v>
+      </c>
+      <c r="E440" t="n">
+        <v>7.79</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
@@ -8168,7 +8164,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>10.895</v>
+        <v>7.60666666666667</v>
       </c>
       <c r="E441"/>
     </row>
@@ -8183,7 +8179,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>11.49</v>
+        <v>7.42333333333333</v>
       </c>
       <c r="E442"/>
     </row>
@@ -8198,9 +8194,11 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>12.085</v>
-      </c>
-      <c r="E443"/>
+        <v>7.24</v>
+      </c>
+      <c r="E443" t="n">
+        <v>7.24</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
@@ -8213,10 +8211,10 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>12.68</v>
+        <v>4.39</v>
       </c>
       <c r="E444" t="n">
-        <v>12.68</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="445">
@@ -8230,9 +8228,11 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="E445"/>
+        <v>2.08</v>
+      </c>
+      <c r="E445" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
@@ -8245,9 +8245,11 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="E446"/>
+        <v>1.7</v>
+      </c>
+      <c r="E446" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
@@ -8260,10 +8262,10 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>13.79</v>
+        <v>1.43</v>
       </c>
       <c r="E447" t="n">
-        <v>13.79</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="448">
@@ -8315,8 +8317,12 @@
       <c r="C451" t="n">
         <v>2001</v>
       </c>
-      <c r="D451"/>
-      <c r="E451"/>
+      <c r="D451" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E451" t="n">
+        <v>6.69</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
@@ -8328,7 +8334,9 @@
       <c r="C452" t="n">
         <v>2002</v>
       </c>
-      <c r="D452"/>
+      <c r="D452" t="n">
+        <v>6.78166666666667</v>
+      </c>
       <c r="E452"/>
     </row>
     <row r="453">
@@ -8341,7 +8349,9 @@
       <c r="C453" t="n">
         <v>2003</v>
       </c>
-      <c r="D453"/>
+      <c r="D453" t="n">
+        <v>6.87333333333333</v>
+      </c>
       <c r="E453"/>
     </row>
     <row r="454">
@@ -8355,11 +8365,9 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E454" t="n">
-        <v>7.79</v>
-      </c>
+        <v>6.965</v>
+      </c>
+      <c r="E454"/>
     </row>
     <row r="455">
       <c r="A455" t="s">
@@ -8372,7 +8380,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>7.60666666666667</v>
+        <v>7.05666666666667</v>
       </c>
       <c r="E455"/>
     </row>
@@ -8387,7 +8395,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>7.42333333333333</v>
+        <v>7.14833333333333</v>
       </c>
       <c r="E456"/>
     </row>
@@ -8419,11 +8427,9 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E458" t="n">
-        <v>4.39</v>
-      </c>
+        <v>6.975</v>
+      </c>
+      <c r="E458"/>
     </row>
     <row r="459">
       <c r="A459" t="s">
@@ -8436,11 +8442,9 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="E459" t="n">
-        <v>2.08</v>
-      </c>
+        <v>6.71</v>
+      </c>
+      <c r="E459"/>
     </row>
     <row r="460">
       <c r="A460" t="s">
@@ -8453,11 +8457,9 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E460" t="n">
-        <v>1.7</v>
-      </c>
+        <v>6.445</v>
+      </c>
+      <c r="E460"/>
     </row>
     <row r="461">
       <c r="A461" t="s">
@@ -8470,10 +8472,10 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>1.43</v>
+        <v>6.18</v>
       </c>
       <c r="E461" t="n">
-        <v>1.43</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="462">
@@ -8512,8 +8514,12 @@
       <c r="C464" t="n">
         <v>2000</v>
       </c>
-      <c r="D464"/>
-      <c r="E464"/>
+      <c r="D464" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E464" t="n">
+        <v>3.57</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -8526,11 +8532,9 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="E465" t="n">
-        <v>6.69</v>
-      </c>
+        <v>2.9625</v>
+      </c>
+      <c r="E465"/>
     </row>
     <row r="466">
       <c r="A466" t="s">
@@ -8543,7 +8547,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>6.78166666666667</v>
+        <v>2.355</v>
       </c>
       <c r="E466"/>
     </row>
@@ -8558,7 +8562,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>6.87333333333333</v>
+        <v>1.7475</v>
       </c>
       <c r="E467"/>
     </row>
@@ -8573,9 +8577,11 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>6.965</v>
-      </c>
-      <c r="E468"/>
+        <v>1.14</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
@@ -8588,7 +8594,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>7.05666666666667</v>
+        <v>0.953333333333333</v>
       </c>
       <c r="E469"/>
     </row>
@@ -8603,7 +8609,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>7.14833333333333</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E470"/>
     </row>
@@ -8618,10 +8624,10 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>7.24</v>
+        <v>0.58</v>
       </c>
       <c r="E471" t="n">
-        <v>7.24</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="472">
@@ -8635,7 +8641,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>6.975</v>
+        <v>0.64</v>
       </c>
       <c r="E472"/>
     </row>
@@ -8650,7 +8656,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>6.71</v>
+        <v>0.7</v>
       </c>
       <c r="E473"/>
     </row>
@@ -8665,9 +8671,11 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="E474"/>
+        <v>0.76</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -8679,12 +8687,8 @@
       <c r="C475" t="n">
         <v>2011</v>
       </c>
-      <c r="D475" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="E475" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="D475"/>
+      <c r="E475"/>
     </row>
     <row r="476">
       <c r="A476" t="s">
@@ -8722,12 +8726,8 @@
       <c r="C478" t="n">
         <v>2000</v>
       </c>
-      <c r="D478" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="E478" t="n">
-        <v>3.57</v>
-      </c>
+      <c r="D478"/>
+      <c r="E478"/>
     </row>
     <row r="479">
       <c r="A479" t="s">
@@ -8739,9 +8739,7 @@
       <c r="C479" t="n">
         <v>2001</v>
       </c>
-      <c r="D479" t="n">
-        <v>2.9625</v>
-      </c>
+      <c r="D479"/>
       <c r="E479"/>
     </row>
     <row r="480">
@@ -8755,9 +8753,11 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>2.355</v>
-      </c>
-      <c r="E480"/>
+        <v>6.05</v>
+      </c>
+      <c r="E480" t="n">
+        <v>6.05</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -8770,7 +8770,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>1.7475</v>
+        <v>5.57166666666667</v>
       </c>
       <c r="E481"/>
     </row>
@@ -8785,11 +8785,9 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E482" t="n">
-        <v>1.14</v>
-      </c>
+        <v>5.09333333333333</v>
+      </c>
+      <c r="E482"/>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -8802,7 +8800,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>0.953333333333333</v>
+        <v>4.615</v>
       </c>
       <c r="E483"/>
     </row>
@@ -8817,7 +8815,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>0.766666666666667</v>
+        <v>4.13666666666667</v>
       </c>
       <c r="E484"/>
     </row>
@@ -8832,11 +8830,9 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E485" t="n">
-        <v>0.58</v>
-      </c>
+        <v>3.65833333333333</v>
+      </c>
+      <c r="E485"/>
     </row>
     <row r="486">
       <c r="A486" t="s">
@@ -8849,9 +8845,11 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E486"/>
+        <v>3.18</v>
+      </c>
+      <c r="E486" t="n">
+        <v>3.18</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
@@ -8864,7 +8862,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="E487"/>
     </row>
@@ -8879,11 +8877,9 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E488" t="n">
-        <v>0.76</v>
-      </c>
+        <v>2.82</v>
+      </c>
+      <c r="E488"/>
     </row>
     <row r="489">
       <c r="A489" t="s">
@@ -8895,8 +8891,12 @@
       <c r="C489" t="n">
         <v>2011</v>
       </c>
-      <c r="D489"/>
-      <c r="E489"/>
+      <c r="D489" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E489" t="n">
+        <v>2.64</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
@@ -8960,12 +8960,8 @@
       <c r="C494" t="n">
         <v>2002</v>
       </c>
-      <c r="D494" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E494" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="D494"/>
+      <c r="E494"/>
     </row>
     <row r="495">
       <c r="A495" t="s">
@@ -8978,9 +8974,11 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>5.57166666666667</v>
-      </c>
-      <c r="E495"/>
+        <v>28.3</v>
+      </c>
+      <c r="E495" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
@@ -8993,7 +8991,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>5.09333333333333</v>
+        <v>28.892</v>
       </c>
       <c r="E496"/>
     </row>
@@ -9008,7 +9006,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>4.615</v>
+        <v>29.484</v>
       </c>
       <c r="E497"/>
     </row>
@@ -9023,7 +9021,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>4.13666666666667</v>
+        <v>30.076</v>
       </c>
       <c r="E498"/>
     </row>
@@ -9038,7 +9036,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>3.65833333333333</v>
+        <v>30.668</v>
       </c>
       <c r="E499"/>
     </row>
@@ -9053,10 +9051,10 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>3.18</v>
+        <v>31.26</v>
       </c>
       <c r="E500" t="n">
-        <v>3.18</v>
+        <v>31.26</v>
       </c>
     </row>
     <row r="501">
@@ -9070,7 +9068,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>3</v>
+        <v>29.7933333333333</v>
       </c>
       <c r="E501"/>
     </row>
@@ -9085,7 +9083,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>2.82</v>
+        <v>28.3266666666667</v>
       </c>
       <c r="E502"/>
     </row>
@@ -9100,10 +9098,10 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>2.64</v>
+        <v>26.86</v>
       </c>
       <c r="E503" t="n">
-        <v>2.64</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="504">
@@ -9181,12 +9179,8 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E509" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="D509"/>
+      <c r="E509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -9198,9 +9192,7 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>28.892</v>
-      </c>
+      <c r="D510"/>
       <c r="E510"/>
     </row>
     <row r="511">
@@ -9213,9 +9205,7 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>29.484</v>
-      </c>
+      <c r="D511"/>
       <c r="E511"/>
     </row>
     <row r="512">
@@ -9228,9 +9218,7 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>30.076</v>
-      </c>
+      <c r="D512"/>
       <c r="E512"/>
     </row>
     <row r="513">
@@ -9243,9 +9231,7 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>30.668</v>
-      </c>
+      <c r="D513"/>
       <c r="E513"/>
     </row>
     <row r="514">
@@ -9258,12 +9244,8 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="E514" t="n">
-        <v>31.26</v>
-      </c>
+      <c r="D514"/>
+      <c r="E514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -9275,9 +9257,7 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>29.7933333333333</v>
-      </c>
+      <c r="D515"/>
       <c r="E515"/>
     </row>
     <row r="516">
@@ -9290,9 +9270,7 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>28.3266666666667</v>
-      </c>
+      <c r="D516"/>
       <c r="E516"/>
     </row>
     <row r="517">
@@ -9305,12 +9283,8 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="E517" t="n">
-        <v>26.86</v>
-      </c>
+      <c r="D517"/>
+      <c r="E517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -9387,8 +9361,12 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
-      <c r="E523"/>
+      <c r="D523" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="E523" t="n">
+        <v>25.64</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -9400,7 +9378,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>24.2075</v>
+      </c>
       <c r="E524"/>
     </row>
     <row r="525">
@@ -9413,7 +9393,9 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
+      <c r="D525" t="n">
+        <v>22.775</v>
+      </c>
       <c r="E525"/>
     </row>
     <row r="526">
@@ -9426,7 +9408,9 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
+      <c r="D526" t="n">
+        <v>21.3425</v>
+      </c>
       <c r="E526"/>
     </row>
     <row r="527">
@@ -9439,7 +9423,9 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>19.91</v>
+      </c>
       <c r="E527"/>
     </row>
     <row r="528">
@@ -9452,7 +9438,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>18.4775</v>
+      </c>
       <c r="E528"/>
     </row>
     <row r="529">
@@ -9465,7 +9453,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>17.045</v>
+      </c>
       <c r="E529"/>
     </row>
     <row r="530">
@@ -9478,7 +9468,9 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>15.6125</v>
+      </c>
       <c r="E530"/>
     </row>
     <row r="531">
@@ -9491,8 +9483,12 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
-      <c r="E531"/>
+      <c r="D531" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="E531" t="n">
+        <v>14.18</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9530,8 +9526,12 @@
       <c r="C534" t="n">
         <v>2000</v>
       </c>
-      <c r="D534"/>
-      <c r="E534"/>
+      <c r="D534" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
@@ -9543,7 +9543,9 @@
       <c r="C535" t="n">
         <v>2001</v>
       </c>
-      <c r="D535"/>
+      <c r="D535" t="n">
+        <v>0.816666666666667</v>
+      </c>
       <c r="E535"/>
     </row>
     <row r="536">
@@ -9556,7 +9558,9 @@
       <c r="C536" t="n">
         <v>2002</v>
       </c>
-      <c r="D536"/>
+      <c r="D536" t="n">
+        <v>0.783333333333333</v>
+      </c>
       <c r="E536"/>
     </row>
     <row r="537">
@@ -9570,10 +9574,10 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>25.64</v>
+        <v>0.75</v>
       </c>
       <c r="E537" t="n">
-        <v>25.64</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="538">
@@ -9587,7 +9591,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>24.2075</v>
+        <v>0.653333333333333</v>
       </c>
       <c r="E538"/>
     </row>
@@ -9602,7 +9606,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>22.775</v>
+        <v>0.556666666666667</v>
       </c>
       <c r="E539"/>
     </row>
@@ -9617,9 +9621,11 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>21.3425</v>
-      </c>
-      <c r="E540"/>
+        <v>0.46</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
@@ -9632,7 +9638,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>19.91</v>
+        <v>0.526666666666667</v>
       </c>
       <c r="E541"/>
     </row>
@@ -9647,7 +9653,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>18.4775</v>
+        <v>0.593333333333333</v>
       </c>
       <c r="E542"/>
     </row>
@@ -9662,9 +9668,11 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>17.045</v>
-      </c>
-      <c r="E543"/>
+        <v>0.66</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
@@ -9677,7 +9685,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>15.6125</v>
+        <v>0.52</v>
       </c>
       <c r="E544"/>
     </row>
@@ -9692,10 +9700,10 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>14.18</v>
+        <v>0.38</v>
       </c>
       <c r="E545" t="n">
-        <v>14.18</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="546">
@@ -9734,12 +9742,8 @@
       <c r="C548" t="n">
         <v>2000</v>
       </c>
-      <c r="D548" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E548" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="D548"/>
+      <c r="E548"/>
     </row>
     <row r="549">
       <c r="A549" t="s">
@@ -9751,9 +9755,7 @@
       <c r="C549" t="n">
         <v>2001</v>
       </c>
-      <c r="D549" t="n">
-        <v>0.816666666666667</v>
-      </c>
+      <c r="D549"/>
       <c r="E549"/>
     </row>
     <row r="550">
@@ -9767,9 +9769,11 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>0.783333333333333</v>
-      </c>
-      <c r="E550"/>
+        <v>8.57</v>
+      </c>
+      <c r="E550" t="n">
+        <v>8.57</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
@@ -9782,11 +9786,9 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E551" t="n">
-        <v>0.75</v>
-      </c>
+        <v>7.01666666666667</v>
+      </c>
+      <c r="E551"/>
     </row>
     <row r="552">
       <c r="A552" t="s">
@@ -9799,7 +9801,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>0.653333333333333</v>
+        <v>5.46333333333333</v>
       </c>
       <c r="E552"/>
     </row>
@@ -9814,9 +9816,11 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>0.556666666666667</v>
-      </c>
-      <c r="E553"/>
+        <v>3.91</v>
+      </c>
+      <c r="E553" t="n">
+        <v>3.91</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
@@ -9829,11 +9833,9 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E554" t="n">
-        <v>0.46</v>
-      </c>
+        <v>3.63</v>
+      </c>
+      <c r="E554"/>
     </row>
     <row r="555">
       <c r="A555" t="s">
@@ -9846,7 +9848,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>0.526666666666667</v>
+        <v>3.35</v>
       </c>
       <c r="E555"/>
     </row>
@@ -9861,9 +9863,11 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>0.593333333333333</v>
-      </c>
-      <c r="E556"/>
+        <v>3.07</v>
+      </c>
+      <c r="E556" t="n">
+        <v>3.07</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
@@ -9876,11 +9880,9 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E557" t="n">
-        <v>0.66</v>
-      </c>
+        <v>2.55</v>
+      </c>
+      <c r="E557"/>
     </row>
     <row r="558">
       <c r="A558" t="s">
@@ -9893,9 +9895,11 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E558"/>
+        <v>2.03</v>
+      </c>
+      <c r="E558" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -9908,10 +9912,10 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>0.38</v>
+        <v>1.32</v>
       </c>
       <c r="E559" t="n">
-        <v>0.38</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="560">
@@ -9950,8 +9954,12 @@
       <c r="C562" t="n">
         <v>2000</v>
       </c>
-      <c r="D562"/>
-      <c r="E562"/>
+      <c r="D562" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="E562" t="n">
+        <v>11.46</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
@@ -9963,8 +9971,12 @@
       <c r="C563" t="n">
         <v>2001</v>
       </c>
-      <c r="D563"/>
-      <c r="E563"/>
+      <c r="D563" t="n">
+        <v>9.14</v>
+      </c>
+      <c r="E563" t="n">
+        <v>9.14</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
@@ -9977,10 +9989,10 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>8.57</v>
+        <v>4.25</v>
       </c>
       <c r="E564" t="n">
-        <v>8.57</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="565">
@@ -9994,9 +10006,11 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>7.01666666666667</v>
-      </c>
-      <c r="E565"/>
+        <v>3.96</v>
+      </c>
+      <c r="E565" t="n">
+        <v>3.96</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
@@ -10009,9 +10023,11 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>5.46333333333333</v>
-      </c>
-      <c r="E566"/>
+        <v>3.19</v>
+      </c>
+      <c r="E566" t="n">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
@@ -10024,10 +10040,10 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>3.91</v>
+        <v>2.87</v>
       </c>
       <c r="E567" t="n">
-        <v>3.91</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="568">
@@ -10041,9 +10057,11 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="E568"/>
+        <v>5.41</v>
+      </c>
+      <c r="E568" t="n">
+        <v>5.41</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
@@ -10056,9 +10074,11 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="E569"/>
+        <v>4.03</v>
+      </c>
+      <c r="E569" t="n">
+        <v>4.03</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
@@ -10071,10 +10091,10 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>3.07</v>
+        <v>3.64</v>
       </c>
       <c r="E570" t="n">
-        <v>3.07</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="571">
@@ -10088,9 +10108,11 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E571"/>
+        <v>3.07</v>
+      </c>
+      <c r="E571" t="n">
+        <v>3.07</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
@@ -10103,10 +10125,10 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="E572" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="573">
@@ -10120,10 +10142,10 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="E573" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="574">
@@ -10136,8 +10158,12 @@
       <c r="C574" t="n">
         <v>2012</v>
       </c>
-      <c r="D574"/>
-      <c r="E574"/>
+      <c r="D574" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E574" t="n">
+        <v>2.33</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
@@ -10162,12 +10188,8 @@
       <c r="C576" t="n">
         <v>2000</v>
       </c>
-      <c r="D576" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="E576" t="n">
-        <v>11.46</v>
-      </c>
+      <c r="D576"/>
+      <c r="E576"/>
     </row>
     <row r="577">
       <c r="A577" t="s">
@@ -10179,12 +10201,8 @@
       <c r="C577" t="n">
         <v>2001</v>
       </c>
-      <c r="D577" t="n">
-        <v>9.14</v>
-      </c>
-      <c r="E577" t="n">
-        <v>9.14</v>
-      </c>
+      <c r="D577"/>
+      <c r="E577"/>
     </row>
     <row r="578">
       <c r="A578" t="s">
@@ -10196,12 +10214,8 @@
       <c r="C578" t="n">
         <v>2002</v>
       </c>
-      <c r="D578" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E578" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="D578"/>
+      <c r="E578"/>
     </row>
     <row r="579">
       <c r="A579" t="s">
@@ -10213,12 +10227,8 @@
       <c r="C579" t="n">
         <v>2003</v>
       </c>
-      <c r="D579" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E579" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="D579"/>
+      <c r="E579"/>
     </row>
     <row r="580">
       <c r="A580" t="s">
@@ -10231,10 +10241,10 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>3.19</v>
+        <v>20.82</v>
       </c>
       <c r="E580" t="n">
-        <v>3.19</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="581">
@@ -10248,11 +10258,9 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="E581" t="n">
-        <v>2.87</v>
-      </c>
+        <v>21.0057142857143</v>
+      </c>
+      <c r="E581"/>
     </row>
     <row r="582">
       <c r="A582" t="s">
@@ -10265,11 +10273,9 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="E582" t="n">
-        <v>5.41</v>
-      </c>
+        <v>21.1914285714286</v>
+      </c>
+      <c r="E582"/>
     </row>
     <row r="583">
       <c r="A583" t="s">
@@ -10282,11 +10288,9 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E583" t="n">
-        <v>4.03</v>
-      </c>
+        <v>21.3771428571429</v>
+      </c>
+      <c r="E583"/>
     </row>
     <row r="584">
       <c r="A584" t="s">
@@ -10299,11 +10303,9 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="E584" t="n">
-        <v>3.64</v>
-      </c>
+        <v>21.5628571428571</v>
+      </c>
+      <c r="E584"/>
     </row>
     <row r="585">
       <c r="A585" t="s">
@@ -10316,11 +10318,9 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E585" t="n">
-        <v>3.07</v>
-      </c>
+        <v>21.7485714285714</v>
+      </c>
+      <c r="E585"/>
     </row>
     <row r="586">
       <c r="A586" t="s">
@@ -10333,11 +10333,9 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E586" t="n">
-        <v>2.32</v>
-      </c>
+        <v>21.9342857142857</v>
+      </c>
+      <c r="E586"/>
     </row>
     <row r="587">
       <c r="A587" t="s">
@@ -10350,10 +10348,10 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>2.02</v>
+        <v>22.12</v>
       </c>
       <c r="E587" t="n">
-        <v>2.02</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="588">
@@ -10366,12 +10364,8 @@
       <c r="C588" t="n">
         <v>2012</v>
       </c>
-      <c r="D588" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="E588" t="n">
-        <v>2.33</v>
-      </c>
+      <c r="D588"/>
+      <c r="E588"/>
     </row>
     <row r="589">
       <c r="A589" t="s">
@@ -10448,12 +10442,8 @@
       <c r="C594" t="n">
         <v>2004</v>
       </c>
-      <c r="D594" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="E594" t="n">
-        <v>20.82</v>
-      </c>
+      <c r="D594"/>
+      <c r="E594"/>
     </row>
     <row r="595">
       <c r="A595" t="s">
@@ -10466,9 +10456,11 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>21.0057142857143</v>
-      </c>
-      <c r="E595"/>
+        <v>22.82</v>
+      </c>
+      <c r="E595" t="n">
+        <v>22.82</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
@@ -10481,7 +10473,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>21.1914285714286</v>
+        <v>20.9283333333333</v>
       </c>
       <c r="E596"/>
     </row>
@@ -10496,7 +10488,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>21.3771428571429</v>
+        <v>19.0366666666667</v>
       </c>
       <c r="E597"/>
     </row>
@@ -10511,7 +10503,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>21.5628571428571</v>
+        <v>17.145</v>
       </c>
       <c r="E598"/>
     </row>
@@ -10526,7 +10518,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>21.7485714285714</v>
+        <v>15.2533333333333</v>
       </c>
       <c r="E599"/>
     </row>
@@ -10541,7 +10533,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>21.9342857142857</v>
+        <v>13.3616666666667</v>
       </c>
       <c r="E600"/>
     </row>
@@ -10556,10 +10548,10 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>22.12</v>
+        <v>11.47</v>
       </c>
       <c r="E601" t="n">
-        <v>22.12</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="602">
@@ -10598,8 +10590,12 @@
       <c r="C604" t="n">
         <v>2000</v>
       </c>
-      <c r="D604"/>
-      <c r="E604"/>
+      <c r="D604" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E604" t="n">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
@@ -10611,8 +10607,12 @@
       <c r="C605" t="n">
         <v>2001</v>
       </c>
-      <c r="D605"/>
-      <c r="E605"/>
+      <c r="D605" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E605" t="n">
+        <v>3.26</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
@@ -10624,8 +10624,12 @@
       <c r="C606" t="n">
         <v>2002</v>
       </c>
-      <c r="D606"/>
-      <c r="E606"/>
+      <c r="D606" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E606" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
@@ -10637,8 +10641,12 @@
       <c r="C607" t="n">
         <v>2003</v>
       </c>
-      <c r="D607"/>
-      <c r="E607"/>
+      <c r="D607" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E607" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
@@ -10650,8 +10658,12 @@
       <c r="C608" t="n">
         <v>2004</v>
       </c>
-      <c r="D608"/>
-      <c r="E608"/>
+      <c r="D608" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E608" t="n">
+        <v>2.62</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
@@ -10664,10 +10676,10 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>22.82</v>
+        <v>1.76</v>
       </c>
       <c r="E609" t="n">
-        <v>22.82</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="610">
@@ -10681,9 +10693,11 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>20.9283333333333</v>
-      </c>
-      <c r="E610"/>
+        <v>1.84</v>
+      </c>
+      <c r="E610" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
@@ -10696,9 +10710,11 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>19.0366666666667</v>
-      </c>
-      <c r="E611"/>
+        <v>1.08</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
@@ -10711,9 +10727,11 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>17.145</v>
-      </c>
-      <c r="E612"/>
+        <v>1.42</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
@@ -10726,9 +10744,11 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>15.2533333333333</v>
-      </c>
-      <c r="E613"/>
+        <v>1.73</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
@@ -10741,9 +10761,11 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>13.3616666666667</v>
-      </c>
-      <c r="E614"/>
+        <v>0.64</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
@@ -10756,10 +10778,10 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>11.47</v>
+        <v>0.56</v>
       </c>
       <c r="E615" t="n">
-        <v>11.47</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="616">
@@ -10772,8 +10794,12 @@
       <c r="C616" t="n">
         <v>2012</v>
       </c>
-      <c r="D616"/>
-      <c r="E616"/>
+      <c r="D616" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
@@ -10798,12 +10824,8 @@
       <c r="C618" t="n">
         <v>2000</v>
       </c>
-      <c r="D618" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E618" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="D618"/>
+      <c r="E618"/>
     </row>
     <row r="619">
       <c r="A619" t="s">
@@ -10815,12 +10837,8 @@
       <c r="C619" t="n">
         <v>2001</v>
       </c>
-      <c r="D619" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="E619" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="D619"/>
+      <c r="E619"/>
     </row>
     <row r="620">
       <c r="A620" t="s">
@@ -10833,10 +10851,10 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>3.11</v>
+        <v>9.11</v>
       </c>
       <c r="E620" t="n">
-        <v>3.11</v>
+        <v>9.11</v>
       </c>
     </row>
     <row r="621">
@@ -10850,11 +10868,9 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="E621" t="n">
-        <v>2.9</v>
-      </c>
+        <v>9.705</v>
+      </c>
+      <c r="E621"/>
     </row>
     <row r="622">
       <c r="A622" t="s">
@@ -10867,11 +10883,9 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E622" t="n">
-        <v>2.62</v>
-      </c>
+        <v>10.3</v>
+      </c>
+      <c r="E622"/>
     </row>
     <row r="623">
       <c r="A623" t="s">
@@ -10884,11 +10898,9 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="E623" t="n">
-        <v>1.76</v>
-      </c>
+        <v>10.895</v>
+      </c>
+      <c r="E623"/>
     </row>
     <row r="624">
       <c r="A624" t="s">
@@ -10901,11 +10913,9 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="E624" t="n">
-        <v>1.84</v>
-      </c>
+        <v>11.49</v>
+      </c>
+      <c r="E624"/>
     </row>
     <row r="625">
       <c r="A625" t="s">
@@ -10918,11 +10928,9 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E625" t="n">
-        <v>1.08</v>
-      </c>
+        <v>12.085</v>
+      </c>
+      <c r="E625"/>
     </row>
     <row r="626">
       <c r="A626" t="s">
@@ -10935,10 +10943,10 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>1.42</v>
+        <v>12.68</v>
       </c>
       <c r="E626" t="n">
-        <v>1.42</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="627">
@@ -10952,11 +10960,9 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E627" t="n">
-        <v>1.73</v>
-      </c>
+        <v>13.05</v>
+      </c>
+      <c r="E627"/>
     </row>
     <row r="628">
       <c r="A628" t="s">
@@ -10969,11 +10975,9 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E628" t="n">
-        <v>0.64</v>
-      </c>
+        <v>13.42</v>
+      </c>
+      <c r="E628"/>
     </row>
     <row r="629">
       <c r="A629" t="s">
@@ -10986,10 +10990,10 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>0.56</v>
+        <v>13.79</v>
       </c>
       <c r="E629" t="n">
-        <v>0.56</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="630">
@@ -11002,12 +11006,8 @@
       <c r="C630" t="n">
         <v>2012</v>
       </c>
-      <c r="D630" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E630" t="n">
-        <v>0.58</v>
-      </c>
+      <c r="D630"/>
+      <c r="E630"/>
     </row>
     <row r="631">
       <c r="A631" t="s">
@@ -42172,12 +42172,8 @@
       <c r="C2804" t="n">
         <v>2002</v>
       </c>
-      <c r="D2804" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E2804" t="n">
-        <v>0.07</v>
-      </c>
+      <c r="D2804"/>
+      <c r="E2804"/>
     </row>
     <row r="2805">
       <c r="A2805" t="s">
@@ -42189,12 +42185,8 @@
       <c r="C2805" t="n">
         <v>2003</v>
       </c>
-      <c r="D2805" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E2805" t="n">
-        <v>0.04</v>
-      </c>
+      <c r="D2805"/>
+      <c r="E2805"/>
     </row>
     <row r="2806">
       <c r="A2806" t="s">
@@ -42207,9 +42199,11 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E2806"/>
+        <v>6.34</v>
+      </c>
+      <c r="E2806" t="n">
+        <v>6.34</v>
+      </c>
     </row>
     <row r="2807">
       <c r="A2807" t="s">
@@ -42222,7 +42216,7 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>0.06</v>
+        <v>7.04333333333333</v>
       </c>
       <c r="E2807"/>
     </row>
@@ -42237,11 +42231,9 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E2808" t="n">
-        <v>0.07</v>
-      </c>
+        <v>7.74666666666667</v>
+      </c>
+      <c r="E2808"/>
     </row>
     <row r="2809">
       <c r="A2809" t="s">
@@ -42254,10 +42246,10 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>0.03</v>
+        <v>8.45</v>
       </c>
       <c r="E2809" t="n">
-        <v>0.03</v>
+        <v>8.45</v>
       </c>
     </row>
     <row r="2810">
@@ -42271,7 +42263,7 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>0.035</v>
+        <v>7.38</v>
       </c>
       <c r="E2810"/>
     </row>
@@ -42286,11 +42278,9 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E2811" t="n">
-        <v>0.04</v>
-      </c>
+        <v>6.31</v>
+      </c>
+      <c r="E2811"/>
     </row>
     <row r="2812">
       <c r="A2812" t="s">
@@ -42303,9 +42293,11 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E2812"/>
+        <v>5.24</v>
+      </c>
+      <c r="E2812" t="n">
+        <v>5.24</v>
+      </c>
     </row>
     <row r="2813">
       <c r="A2813" t="s">
@@ -42317,12 +42309,8 @@
       <c r="C2813" t="n">
         <v>2011</v>
       </c>
-      <c r="D2813" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2813" t="n">
-        <v>0</v>
-      </c>
+      <c r="D2813"/>
+      <c r="E2813"/>
     </row>
     <row r="2814">
       <c r="A2814" t="s">
@@ -42386,8 +42374,12 @@
       <c r="C2818" t="n">
         <v>2002</v>
       </c>
-      <c r="D2818"/>
-      <c r="E2818"/>
+      <c r="D2818" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E2818" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="2819">
       <c r="A2819" t="s">
@@ -42399,8 +42391,12 @@
       <c r="C2819" t="n">
         <v>2003</v>
       </c>
-      <c r="D2819"/>
-      <c r="E2819"/>
+      <c r="D2819" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E2819" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="2820">
       <c r="A2820" t="s">
@@ -42413,11 +42409,9 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E2820" t="n">
-        <v>6.34</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E2820"/>
     </row>
     <row r="2821">
       <c r="A2821" t="s">
@@ -42430,7 +42424,7 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>7.04333333333333</v>
+        <v>0.06</v>
       </c>
       <c r="E2821"/>
     </row>
@@ -42445,9 +42439,11 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>7.74666666666667</v>
-      </c>
-      <c r="E2822"/>
+        <v>0.07</v>
+      </c>
+      <c r="E2822" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="2823">
       <c r="A2823" t="s">
@@ -42460,10 +42456,10 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>8.45</v>
+        <v>0.03</v>
       </c>
       <c r="E2823" t="n">
-        <v>8.45</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="2824">
@@ -42477,7 +42473,7 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>7.38</v>
+        <v>0.035</v>
       </c>
       <c r="E2824"/>
     </row>
@@ -42492,9 +42488,11 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="E2825"/>
+        <v>0.04</v>
+      </c>
+      <c r="E2825" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="2826">
       <c r="A2826" t="s">
@@ -42507,11 +42505,9 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="E2826" t="n">
-        <v>5.24</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="E2826"/>
     </row>
     <row r="2827">
       <c r="A2827" t="s">
@@ -42523,8 +42519,12 @@
       <c r="C2827" t="n">
         <v>2011</v>
       </c>
-      <c r="D2827"/>
-      <c r="E2827"/>
+      <c r="D2827" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2828">
       <c r="A2828" t="s">
@@ -45715,35 +45715,31 @@
       </c>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33" t="n">
-        <v>9.11</v>
-      </c>
-      <c r="F33" t="n">
-        <v>9.705</v>
-      </c>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" t="n">
-        <v>10.3</v>
+        <v>7.79</v>
       </c>
       <c r="H33" t="n">
-        <v>10.895</v>
+        <v>7.60666666666667</v>
       </c>
       <c r="I33" t="n">
-        <v>11.49</v>
+        <v>7.42333333333333</v>
       </c>
       <c r="J33" t="n">
-        <v>12.085</v>
+        <v>7.24</v>
       </c>
       <c r="K33" t="n">
-        <v>12.68</v>
+        <v>4.39</v>
       </c>
       <c r="L33" t="n">
-        <v>13.05</v>
+        <v>2.08</v>
       </c>
       <c r="M33" t="n">
-        <v>13.42</v>
+        <v>1.7</v>
       </c>
       <c r="N33" t="n">
-        <v>13.79</v>
+        <v>1.43</v>
       </c>
       <c r="O33"/>
       <c r="P33"/>
@@ -45756,32 +45752,38 @@
         <v>70</v>
       </c>
       <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
+      <c r="D34" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6.78166666666667</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6.87333333333333</v>
+      </c>
       <c r="G34" t="n">
-        <v>7.79</v>
+        <v>6.965</v>
       </c>
       <c r="H34" t="n">
-        <v>7.60666666666667</v>
+        <v>7.05666666666667</v>
       </c>
       <c r="I34" t="n">
-        <v>7.42333333333333</v>
+        <v>7.14833333333333</v>
       </c>
       <c r="J34" t="n">
         <v>7.24</v>
       </c>
       <c r="K34" t="n">
-        <v>4.39</v>
+        <v>6.975</v>
       </c>
       <c r="L34" t="n">
-        <v>2.08</v>
+        <v>6.71</v>
       </c>
       <c r="M34" t="n">
-        <v>1.7</v>
+        <v>6.445</v>
       </c>
       <c r="N34" t="n">
-        <v>1.43</v>
+        <v>6.18</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -45793,40 +45795,40 @@
       <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C35"/>
+      <c r="C35" t="n">
+        <v>3.57</v>
+      </c>
       <c r="D35" t="n">
-        <v>6.69</v>
+        <v>2.9625</v>
       </c>
       <c r="E35" t="n">
-        <v>6.78166666666667</v>
+        <v>2.355</v>
       </c>
       <c r="F35" t="n">
-        <v>6.87333333333333</v>
+        <v>1.7475</v>
       </c>
       <c r="G35" t="n">
-        <v>6.965</v>
+        <v>1.14</v>
       </c>
       <c r="H35" t="n">
-        <v>7.05666666666667</v>
+        <v>0.953333333333333</v>
       </c>
       <c r="I35" t="n">
-        <v>7.14833333333333</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="J35" t="n">
-        <v>7.24</v>
+        <v>0.58</v>
       </c>
       <c r="K35" t="n">
-        <v>6.975</v>
+        <v>0.64</v>
       </c>
       <c r="L35" t="n">
-        <v>6.71</v>
+        <v>0.7</v>
       </c>
       <c r="M35" t="n">
-        <v>6.445</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0.76</v>
+      </c>
+      <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
     </row>
@@ -45837,40 +45839,38 @@
       <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2.9625</v>
-      </c>
+      <c r="C36"/>
+      <c r="D36"/>
       <c r="E36" t="n">
-        <v>2.355</v>
+        <v>6.05</v>
       </c>
       <c r="F36" t="n">
-        <v>1.7475</v>
+        <v>5.57166666666667</v>
       </c>
       <c r="G36" t="n">
-        <v>1.14</v>
+        <v>5.09333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0.953333333333333</v>
+        <v>4.615</v>
       </c>
       <c r="I36" t="n">
-        <v>0.766666666666667</v>
+        <v>4.13666666666667</v>
       </c>
       <c r="J36" t="n">
-        <v>0.58</v>
+        <v>3.65833333333333</v>
       </c>
       <c r="K36" t="n">
-        <v>0.64</v>
+        <v>3.18</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N36"/>
+        <v>2.82</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.64</v>
+      </c>
       <c r="O36"/>
       <c r="P36"/>
     </row>
@@ -45883,35 +45883,33 @@
       </c>
       <c r="C37"/>
       <c r="D37"/>
-      <c r="E37" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="E37"/>
       <c r="F37" t="n">
-        <v>5.57166666666667</v>
+        <v>28.3</v>
       </c>
       <c r="G37" t="n">
-        <v>5.09333333333333</v>
+        <v>28.892</v>
       </c>
       <c r="H37" t="n">
-        <v>4.615</v>
+        <v>29.484</v>
       </c>
       <c r="I37" t="n">
-        <v>4.13666666666667</v>
+        <v>30.076</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65833333333333</v>
+        <v>30.668</v>
       </c>
       <c r="K37" t="n">
-        <v>3.18</v>
+        <v>31.26</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>29.7933333333333</v>
       </c>
       <c r="M37" t="n">
-        <v>2.82</v>
+        <v>28.3266666666667</v>
       </c>
       <c r="N37" t="n">
-        <v>2.64</v>
+        <v>26.86</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
@@ -45926,33 +45924,15 @@
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>28.892</v>
-      </c>
-      <c r="H38" t="n">
-        <v>29.484</v>
-      </c>
-      <c r="I38" t="n">
-        <v>30.076</v>
-      </c>
-      <c r="J38" t="n">
-        <v>30.668</v>
-      </c>
-      <c r="K38" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="L38" t="n">
-        <v>29.7933333333333</v>
-      </c>
-      <c r="M38" t="n">
-        <v>28.3266666666667</v>
-      </c>
-      <c r="N38" t="n">
-        <v>26.86</v>
-      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
     </row>
@@ -45966,15 +45946,33 @@
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+      <c r="F39" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="G39" t="n">
+        <v>24.2075</v>
+      </c>
+      <c r="H39" t="n">
+        <v>22.775</v>
+      </c>
+      <c r="I39" t="n">
+        <v>21.3425</v>
+      </c>
+      <c r="J39" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="K39" t="n">
+        <v>18.4775</v>
+      </c>
+      <c r="L39" t="n">
+        <v>17.045</v>
+      </c>
+      <c r="M39" t="n">
+        <v>15.6125</v>
+      </c>
+      <c r="N39" t="n">
+        <v>14.18</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
     </row>
@@ -45985,35 +45983,41 @@
       <c r="B40" t="s">
         <v>82</v>
       </c>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
+      <c r="C40" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.816666666666667</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.783333333333333</v>
+      </c>
       <c r="F40" t="n">
-        <v>25.64</v>
+        <v>0.75</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2075</v>
+        <v>0.653333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>22.775</v>
+        <v>0.556666666666667</v>
       </c>
       <c r="I40" t="n">
-        <v>21.3425</v>
+        <v>0.46</v>
       </c>
       <c r="J40" t="n">
-        <v>19.91</v>
+        <v>0.526666666666667</v>
       </c>
       <c r="K40" t="n">
-        <v>18.4775</v>
+        <v>0.593333333333333</v>
       </c>
       <c r="L40" t="n">
-        <v>17.045</v>
+        <v>0.66</v>
       </c>
       <c r="M40" t="n">
-        <v>15.6125</v>
+        <v>0.52</v>
       </c>
       <c r="N40" t="n">
-        <v>14.18</v>
+        <v>0.38</v>
       </c>
       <c r="O40"/>
       <c r="P40"/>
@@ -46025,41 +46029,37 @@
       <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.816666666666667</v>
-      </c>
+      <c r="C41"/>
+      <c r="D41"/>
       <c r="E41" t="n">
-        <v>0.783333333333333</v>
+        <v>8.57</v>
       </c>
       <c r="F41" t="n">
-        <v>0.75</v>
+        <v>7.01666666666667</v>
       </c>
       <c r="G41" t="n">
-        <v>0.653333333333333</v>
+        <v>5.46333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>0.556666666666667</v>
+        <v>3.91</v>
       </c>
       <c r="I41" t="n">
-        <v>0.46</v>
+        <v>3.63</v>
       </c>
       <c r="J41" t="n">
-        <v>0.526666666666667</v>
+        <v>3.35</v>
       </c>
       <c r="K41" t="n">
-        <v>0.593333333333333</v>
+        <v>3.07</v>
       </c>
       <c r="L41" t="n">
-        <v>0.66</v>
+        <v>2.55</v>
       </c>
       <c r="M41" t="n">
-        <v>0.52</v>
+        <v>2.03</v>
       </c>
       <c r="N41" t="n">
-        <v>0.38</v>
+        <v>1.32</v>
       </c>
       <c r="O41"/>
       <c r="P41"/>
@@ -46071,39 +46071,45 @@
       <c r="B42" t="s">
         <v>86</v>
       </c>
-      <c r="C42"/>
-      <c r="D42"/>
+      <c r="C42" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.14</v>
+      </c>
       <c r="E42" t="n">
-        <v>8.57</v>
+        <v>4.25</v>
       </c>
       <c r="F42" t="n">
-        <v>7.01666666666667</v>
+        <v>3.96</v>
       </c>
       <c r="G42" t="n">
-        <v>5.46333333333333</v>
+        <v>3.19</v>
       </c>
       <c r="H42" t="n">
-        <v>3.91</v>
+        <v>2.87</v>
       </c>
       <c r="I42" t="n">
-        <v>3.63</v>
+        <v>5.41</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>4.03</v>
       </c>
       <c r="K42" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="L42" t="n">
         <v>3.07</v>
       </c>
-      <c r="L42" t="n">
-        <v>2.55</v>
-      </c>
       <c r="M42" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="N42" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="O42"/>
+        <v>2.02</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.33</v>
+      </c>
       <c r="P42"/>
     </row>
     <row r="43">
@@ -46113,45 +46119,35 @@
       <c r="B43" t="s">
         <v>88</v>
       </c>
-      <c r="C43" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D43" t="n">
-        <v>9.14</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
       <c r="G43" t="n">
-        <v>3.19</v>
+        <v>20.82</v>
       </c>
       <c r="H43" t="n">
-        <v>2.87</v>
+        <v>21.0057142857143</v>
       </c>
       <c r="I43" t="n">
-        <v>5.41</v>
+        <v>21.1914285714286</v>
       </c>
       <c r="J43" t="n">
-        <v>4.03</v>
+        <v>21.3771428571429</v>
       </c>
       <c r="K43" t="n">
-        <v>3.64</v>
+        <v>21.5628571428571</v>
       </c>
       <c r="L43" t="n">
-        <v>3.07</v>
+        <v>21.7485714285714</v>
       </c>
       <c r="M43" t="n">
-        <v>2.32</v>
+        <v>21.9342857142857</v>
       </c>
       <c r="N43" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2.33</v>
-      </c>
+        <v>22.12</v>
+      </c>
+      <c r="O43"/>
       <c r="P43"/>
     </row>
     <row r="44">
@@ -46165,29 +46161,27 @@
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44" t="n">
-        <v>20.82</v>
-      </c>
+      <c r="G44"/>
       <c r="H44" t="n">
-        <v>21.0057142857143</v>
+        <v>22.82</v>
       </c>
       <c r="I44" t="n">
-        <v>21.1914285714286</v>
+        <v>20.9283333333333</v>
       </c>
       <c r="J44" t="n">
-        <v>21.3771428571429</v>
+        <v>19.0366666666667</v>
       </c>
       <c r="K44" t="n">
-        <v>21.5628571428571</v>
+        <v>17.145</v>
       </c>
       <c r="L44" t="n">
-        <v>21.7485714285714</v>
+        <v>15.2533333333333</v>
       </c>
       <c r="M44" t="n">
-        <v>21.9342857142857</v>
+        <v>13.3616666666667</v>
       </c>
       <c r="N44" t="n">
-        <v>22.12</v>
+        <v>11.47</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
@@ -46199,33 +46193,45 @@
       <c r="B45" t="s">
         <v>92</v>
       </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
+      <c r="C45" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.62</v>
+      </c>
       <c r="H45" t="n">
-        <v>22.82</v>
+        <v>1.76</v>
       </c>
       <c r="I45" t="n">
-        <v>20.9283333333333</v>
+        <v>1.84</v>
       </c>
       <c r="J45" t="n">
-        <v>19.0366666666667</v>
+        <v>1.08</v>
       </c>
       <c r="K45" t="n">
-        <v>17.145</v>
+        <v>1.42</v>
       </c>
       <c r="L45" t="n">
-        <v>15.2533333333333</v>
+        <v>1.73</v>
       </c>
       <c r="M45" t="n">
-        <v>13.3616666666667</v>
+        <v>0.64</v>
       </c>
       <c r="N45" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="O45"/>
+        <v>0.56</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.58</v>
+      </c>
       <c r="P45"/>
     </row>
     <row r="46">
@@ -46235,45 +46241,39 @@
       <c r="B46" t="s">
         <v>94</v>
       </c>
-      <c r="C46" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="C46"/>
+      <c r="D46"/>
       <c r="E46" t="n">
-        <v>3.11</v>
+        <v>9.11</v>
       </c>
       <c r="F46" t="n">
-        <v>2.9</v>
+        <v>9.705</v>
       </c>
       <c r="G46" t="n">
-        <v>2.62</v>
+        <v>10.3</v>
       </c>
       <c r="H46" t="n">
-        <v>1.76</v>
+        <v>10.895</v>
       </c>
       <c r="I46" t="n">
-        <v>1.84</v>
+        <v>11.49</v>
       </c>
       <c r="J46" t="n">
-        <v>1.08</v>
+        <v>12.085</v>
       </c>
       <c r="K46" t="n">
-        <v>1.42</v>
+        <v>12.68</v>
       </c>
       <c r="L46" t="n">
-        <v>1.73</v>
+        <v>13.05</v>
       </c>
       <c r="M46" t="n">
-        <v>0.64</v>
+        <v>13.42</v>
       </c>
       <c r="N46" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0.58</v>
-      </c>
+        <v>13.79</v>
+      </c>
+      <c r="O46"/>
       <c r="P46"/>
     </row>
     <row r="47">
@@ -51621,36 +51621,30 @@
       </c>
       <c r="C202"/>
       <c r="D202"/>
-      <c r="E202" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.04</v>
-      </c>
+      <c r="E202"/>
+      <c r="F202"/>
       <c r="G202" t="n">
-        <v>0.05</v>
+        <v>6.34</v>
       </c>
       <c r="H202" t="n">
-        <v>0.06</v>
+        <v>7.04333333333333</v>
       </c>
       <c r="I202" t="n">
-        <v>0.07</v>
+        <v>7.74666666666667</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03</v>
+        <v>8.45</v>
       </c>
       <c r="K202" t="n">
-        <v>0.035</v>
+        <v>7.38</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04</v>
+        <v>6.31</v>
       </c>
       <c r="M202" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N202" t="n">
-        <v>0</v>
-      </c>
+        <v>5.24</v>
+      </c>
+      <c r="N202"/>
       <c r="O202"/>
       <c r="P202"/>
     </row>
@@ -51663,30 +51657,36 @@
       </c>
       <c r="C203"/>
       <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
+      <c r="E203" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.04</v>
+      </c>
       <c r="G203" t="n">
-        <v>6.34</v>
+        <v>0.05</v>
       </c>
       <c r="H203" t="n">
-        <v>7.04333333333333</v>
+        <v>0.06</v>
       </c>
       <c r="I203" t="n">
-        <v>7.74666666666667</v>
+        <v>0.07</v>
       </c>
       <c r="J203" t="n">
-        <v>8.45</v>
+        <v>0.03</v>
       </c>
       <c r="K203" t="n">
-        <v>7.38</v>
+        <v>0.035</v>
       </c>
       <c r="L203" t="n">
-        <v>6.31</v>
+        <v>0.04</v>
       </c>
       <c r="M203" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="N203"/>
+        <v>0.02</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
       <c r="O203"/>
       <c r="P203"/>
     </row>
@@ -53005,21 +53005,27 @@
       </c>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33" t="n">
-        <v>9.11</v>
-      </c>
+      <c r="E33"/>
       <c r="F33"/>
-      <c r="G33"/>
+      <c r="G33" t="n">
+        <v>7.79</v>
+      </c>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33"/>
+      <c r="J33" t="n">
+        <v>7.24</v>
+      </c>
       <c r="K33" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="L33"/>
-      <c r="M33"/>
+        <v>4.39</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.7</v>
+      </c>
       <c r="N33" t="n">
-        <v>13.79</v>
+        <v>1.43</v>
       </c>
       <c r="O33"/>
       <c r="P33"/>
@@ -53032,28 +53038,22 @@
         <v>70</v>
       </c>
       <c r="C34"/>
-      <c r="D34"/>
+      <c r="D34" t="n">
+        <v>6.69</v>
+      </c>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="n">
         <v>7.24</v>
       </c>
-      <c r="K34" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.7</v>
-      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
       <c r="N34" t="n">
-        <v>1.43</v>
+        <v>6.18</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -53065,24 +53065,26 @@
       <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" t="n">
-        <v>6.69</v>
-      </c>
+      <c r="C35" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35"/>
+      <c r="G35" t="n">
+        <v>1.14</v>
+      </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="n">
-        <v>7.24</v>
+        <v>0.58</v>
       </c>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35" t="n">
-        <v>6.18</v>
-      </c>
+      <c r="M35" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
     </row>
@@ -53093,26 +53095,24 @@
       <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="n">
-        <v>3.57</v>
-      </c>
+      <c r="C36"/>
       <c r="D36"/>
-      <c r="E36"/>
+      <c r="E36" t="n">
+        <v>6.05</v>
+      </c>
       <c r="F36"/>
-      <c r="G36" t="n">
-        <v>1.14</v>
-      </c>
+      <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K36"/>
+      <c r="J36"/>
+      <c r="K36" t="n">
+        <v>3.18</v>
+      </c>
       <c r="L36"/>
-      <c r="M36" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N36"/>
+      <c r="M36"/>
+      <c r="N36" t="n">
+        <v>2.64</v>
+      </c>
       <c r="O36"/>
       <c r="P36"/>
     </row>
@@ -53125,21 +53125,21 @@
       </c>
       <c r="C37"/>
       <c r="D37"/>
-      <c r="E37" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F37"/>
+      <c r="E37"/>
+      <c r="F37" t="n">
+        <v>28.3</v>
+      </c>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37" t="n">
-        <v>3.18</v>
+        <v>31.26</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37" t="n">
-        <v>2.64</v>
+        <v>26.86</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
@@ -53154,21 +53154,15 @@
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
-      <c r="K38" t="n">
-        <v>31.26</v>
-      </c>
+      <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" t="n">
-        <v>26.86</v>
-      </c>
+      <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
     </row>
@@ -53182,7 +53176,9 @@
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39"/>
+      <c r="F39" t="n">
+        <v>25.64</v>
+      </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -53190,7 +53186,9 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39"/>
+      <c r="N39" t="n">
+        <v>14.18</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
     </row>
@@ -53201,21 +53199,27 @@
       <c r="B40" t="s">
         <v>82</v>
       </c>
-      <c r="C40"/>
+      <c r="C40" t="n">
+        <v>0.85</v>
+      </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" t="n">
-        <v>25.64</v>
+        <v>0.75</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
-      <c r="I40"/>
+      <c r="I40" t="n">
+        <v>0.46</v>
+      </c>
       <c r="J40"/>
       <c r="K40"/>
-      <c r="L40"/>
+      <c r="L40" t="n">
+        <v>0.66</v>
+      </c>
       <c r="M40"/>
       <c r="N40" t="n">
-        <v>14.18</v>
+        <v>0.38</v>
       </c>
       <c r="O40"/>
       <c r="P40"/>
@@ -53227,27 +53231,27 @@
       <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="C41"/>
       <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="E41" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="F41"/>
       <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41" t="n">
-        <v>0.46</v>
-      </c>
+      <c r="H41" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="I41"/>
       <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M41"/>
+      <c r="K41" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41" t="n">
+        <v>2.03</v>
+      </c>
       <c r="N41" t="n">
-        <v>0.38</v>
+        <v>1.32</v>
       </c>
       <c r="O41"/>
       <c r="P41"/>
@@ -53259,29 +53263,45 @@
       <c r="B42" t="s">
         <v>86</v>
       </c>
-      <c r="C42"/>
-      <c r="D42"/>
+      <c r="C42" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.14</v>
+      </c>
       <c r="E42" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42"/>
+        <v>4.25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.19</v>
+      </c>
       <c r="H42" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="I42"/>
-      <c r="J42"/>
+        <v>2.87</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.03</v>
+      </c>
       <c r="K42" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="L42" t="n">
         <v>3.07</v>
       </c>
-      <c r="L42"/>
       <c r="M42" t="n">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="N42" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="O42"/>
+        <v>2.02</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.33</v>
+      </c>
       <c r="P42"/>
     </row>
     <row r="43">
@@ -53291,45 +53311,23 @@
       <c r="B43" t="s">
         <v>88</v>
       </c>
-      <c r="C43" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="D43" t="n">
-        <v>9.14</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
       <c r="G43" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2.32</v>
-      </c>
+        <v>20.82</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
       <c r="N43" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2.33</v>
-      </c>
+        <v>22.12</v>
+      </c>
+      <c r="O43"/>
       <c r="P43"/>
     </row>
     <row r="44">
@@ -53343,17 +53341,17 @@
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="H44"/>
+      <c r="G44"/>
+      <c r="H44" t="n">
+        <v>22.82</v>
+      </c>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44" t="n">
-        <v>22.12</v>
+        <v>11.47</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
@@ -53365,23 +53363,45 @@
       <c r="B45" t="s">
         <v>92</v>
       </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
+      <c r="C45" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.62</v>
+      </c>
       <c r="H45" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
+        <v>1.76</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.64</v>
+      </c>
       <c r="N45" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="O45"/>
+        <v>0.56</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.58</v>
+      </c>
       <c r="P45"/>
     </row>
     <row r="46">
@@ -53391,45 +53411,25 @@
       <c r="B46" t="s">
         <v>94</v>
       </c>
-      <c r="C46" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="C46"/>
+      <c r="D46"/>
       <c r="E46" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.08</v>
-      </c>
+        <v>9.11</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
       <c r="K46" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.64</v>
-      </c>
+        <v>12.68</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46"/>
       <c r="N46" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0.58</v>
-      </c>
+        <v>13.79</v>
+      </c>
+      <c r="O46"/>
       <c r="P46"/>
     </row>
     <row r="47">
@@ -57829,28 +57829,22 @@
       </c>
       <c r="C202"/>
       <c r="D202"/>
-      <c r="E202" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202" t="n">
+        <v>6.34</v>
+      </c>
       <c r="H202"/>
-      <c r="I202" t="n">
-        <v>0.07</v>
-      </c>
+      <c r="I202"/>
       <c r="J202" t="n">
-        <v>0.03</v>
+        <v>8.45</v>
       </c>
       <c r="K202"/>
-      <c r="L202" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M202"/>
-      <c r="N202" t="n">
-        <v>0</v>
-      </c>
+      <c r="L202"/>
+      <c r="M202" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="N202"/>
       <c r="O202"/>
       <c r="P202"/>
     </row>
@@ -57863,22 +57857,28 @@
       </c>
       <c r="C203"/>
       <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203" t="n">
-        <v>6.34</v>
-      </c>
+      <c r="E203" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G203"/>
       <c r="H203"/>
-      <c r="I203"/>
+      <c r="I203" t="n">
+        <v>0.07</v>
+      </c>
       <c r="J203" t="n">
-        <v>8.45</v>
+        <v>0.03</v>
       </c>
       <c r="K203"/>
-      <c r="L203"/>
-      <c r="M203" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="N203"/>
+      <c r="L203" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M203"/>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
       <c r="O203"/>
       <c r="P203"/>
     </row>
